--- a/OREI_files/10-herd data/TA_ Sample summary OREI 10 Herd_December 2020.xlsx
+++ b/OREI_files/10-herd data/TA_ Sample summary OREI 10 Herd_December 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/10-herd data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFCE9DE-C301-4211-970C-17447FA1D630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{ACFCE9DE-C301-4211-970C-17447FA1D630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3050055-57AB-4700-9A33-87FEF68EE0C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4DB00FF5-8C41-41A3-A876-EE0EF4B22840}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4DB00FF5-8C41-41A3-A876-EE0EF4B22840}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate n" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>Sample Type</t>
   </si>
@@ -238,6 +230,9 @@
   </si>
   <si>
     <t>extra, this is what Asa is using</t>
+  </si>
+  <si>
+    <t>change 7_15</t>
   </si>
 </sst>
 </file>
@@ -744,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFA3C85-8402-4415-A451-E3BC7D6C5471}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215FAA3-AD8B-45EA-B971-3667886A99AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1887,6 +1882,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
